--- a/output/otest/summary_sample.xlsx
+++ b/output/otest/summary_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>员工</t>
   </si>
@@ -34,16 +34,16 @@
     <t>W3</t>
   </si>
   <si>
-    <t>W4</t>
-  </si>
-  <si>
     <t>W5</t>
   </si>
   <si>
     <t>总人天</t>
   </si>
   <si>
-    <t>谭文辉</t>
+    <t>史少龙</t>
+  </si>
+  <si>
+    <t>请假</t>
   </si>
   <si>
     <t>运维</t>
@@ -407,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,25 +438,22 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>51.5</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -465,10 +462,33 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>11.86</v>
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>23.5</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>44.5</v>
+      </c>
+      <c r="G3">
+        <v>16.5</v>
+      </c>
+      <c r="H3">
+        <v>17.07</v>
       </c>
     </row>
   </sheetData>
